--- a/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
@@ -2,31 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yyoldas"/>
+  <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8970" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8970" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="testCitizen" sheetId="2" r:id="rId5"/>
     <sheet name="AddNewAddress" sheetId="3" r:id="rId6"/>
     <sheet name="Nation" sheetId="4" r:id="rId7"/>
+    <sheet name="Login" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1666731000" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1666731000" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1666731000" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1666731000"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668197866" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668197866" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668197866" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668197866"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Lion</t>
   </si>
@@ -95,6 +96,12 @@
   </si>
   <si>
     <t>USAINDIA2</t>
+  </si>
+  <si>
+    <t>richfield.edu</t>
+  </si>
+  <si>
+    <t>Richfield2020!</t>
   </si>
 </sst>
 </file>
@@ -120,7 +127,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666731000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668197866" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -135,7 +142,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666731000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668197866" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -144,26 +151,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1666731000" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -179,26 +175,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666731000"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666731000"/>
+          <pm:border xmlns:pm="smNativeData" id="1668197866"/>
         </ext>
       </extLst>
     </border>
@@ -219,10 +196,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1666731000" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668197866" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1666731000" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668197866" count="2">
         <pm:color name="Color 26" rgb="9876AA"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
       </pm:colors>
@@ -566,7 +543,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666731000" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -575,16 +552,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666731000" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -776,7 +753,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666731000" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -785,16 +762,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666731000" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -805,7 +782,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="F3" sqref="A1:F3"/>
@@ -879,53 +856,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666731000" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -934,16 +869,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666731000" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -956,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +921,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666731000" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -995,16 +930,68 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666731000" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1666731000" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666731000" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="2" width="12.312500" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
@@ -17,10 +17,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668197866" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668197866" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668197866" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668197866"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668205125" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668205125" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668205125" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668205125"/>
     </ext>
   </extLst>
 </workbook>
@@ -127,7 +127,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668197866" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668205125" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -142,7 +142,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668197866" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668205125" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -175,7 +175,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668197866"/>
+          <pm:border xmlns:pm="smNativeData" id="1668205125"/>
         </ext>
       </extLst>
     </border>
@@ -196,10 +196,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668197866" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668205125" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668197866" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668205125" count="2">
         <pm:color name="Color 26" rgb="9876AA"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
       </pm:colors>
@@ -543,7 +543,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -552,16 +552,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -753,7 +753,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -762,16 +762,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -860,7 +860,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -869,16 +869,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -921,7 +921,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -930,16 +930,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -973,7 +973,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668197866" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -982,16 +982,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668197866" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668197866" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668197866" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
@@ -5,29 +5,28 @@
   <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8970" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8970" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="testCitizen" sheetId="2" r:id="rId5"/>
     <sheet name="AddNewAddress" sheetId="3" r:id="rId6"/>
     <sheet name="Nation" sheetId="4" r:id="rId7"/>
-    <sheet name="Login" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668205125" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668205125" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668205125" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668205125"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668522235" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668522235" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668522235" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668522235"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Lion</t>
   </si>
@@ -96,12 +95,6 @@
   </si>
   <si>
     <t>USAINDIA2</t>
-  </si>
-  <si>
-    <t>richfield.edu</t>
-  </si>
-  <si>
-    <t>Richfield2020!</t>
   </si>
 </sst>
 </file>
@@ -127,7 +120,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668205125" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668522235" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -142,7 +135,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668205125" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668522235" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -175,7 +168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668205125"/>
+          <pm:border xmlns:pm="smNativeData" id="1668522235"/>
         </ext>
       </extLst>
     </border>
@@ -196,10 +189,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668205125" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668522235" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668205125" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668522235" count="2">
         <pm:color name="Color 26" rgb="9876AA"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
       </pm:colors>
@@ -543,7 +536,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -552,16 +545,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -753,7 +746,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -762,16 +755,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -860,7 +853,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -869,16 +862,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -891,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +914,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -930,68 +923,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
-  <cols>
-    <col min="1" max="2" width="12.312500" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668205125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668205125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668205125" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668205125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ApacheExcel22.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
+  <fileSharing readOnlyRecommended="0" userName="yyoldas"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8970" tabRatio="500"/>
@@ -16,10 +16,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668522235" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668522235" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668522235" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668522235"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668524008" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668524008" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668524008" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668524008"/>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +120,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668522235" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668524008" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -135,7 +135,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668522235" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668524008" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -168,7 +168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668522235"/>
+          <pm:border xmlns:pm="smNativeData" id="1668524008"/>
         </ext>
       </extLst>
     </border>
@@ -189,10 +189,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668522235" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668524008" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668522235" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668524008" count="2">
         <pm:color name="Color 26" rgb="9876AA"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
       </pm:colors>
@@ -536,7 +536,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524008" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -545,16 +545,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524008" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -746,7 +746,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524008" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -755,16 +755,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524008" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -853,7 +853,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524008" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -862,16 +862,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524008" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -914,7 +914,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668522235" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524008" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -923,16 +923,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668522235" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668522235" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524008" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524008" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668522235" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524008" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
